--- a/4 семестр/прикладная ТВ/Исходные данные к ЛР 2-2020.xlsx
+++ b/4 семестр/прикладная ТВ/Исходные данные к ЛР 2-2020.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kirill/Desktop/Study/4 семестр/прикладная ТВ/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{762BF631-A8A4-9E46-B3D4-E832D6ED12DF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D974279-DB30-974D-9DBF-B1B5AACAF7A1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="40960" windowHeight="23040" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="15520" windowHeight="21140" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="1" r:id="rId1"/>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1799" uniqueCount="944">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1886" uniqueCount="1028">
   <si>
     <t>Angola</t>
   </si>
@@ -2876,9 +2876,6 @@
   </si>
   <si>
     <t xml:space="preserve">h = </t>
-  </si>
-  <si>
-    <t>29615.9 - 15990</t>
   </si>
   <si>
     <t>159901 - 290186.1</t>
@@ -2964,7 +2961,263 @@
     </r>
   </si>
   <si>
-    <t>x&lt; 29615.9</t>
+    <t>интервал</t>
+  </si>
+  <si>
+    <t>частота</t>
+  </si>
+  <si>
+    <t>отн частота</t>
+  </si>
+  <si>
+    <t>плотнность распр</t>
+  </si>
+  <si>
+    <t>эмп функ расп</t>
+  </si>
+  <si>
+    <t>правая гр</t>
+  </si>
+  <si>
+    <t>290186.1</t>
+  </si>
+  <si>
+    <t>420471.2</t>
+  </si>
+  <si>
+    <t>550756.3</t>
+  </si>
+  <si>
+    <t>681041.4</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 811326.5</t>
+  </si>
+  <si>
+    <t>941611.6</t>
+  </si>
+  <si>
+    <t>29615.9</t>
+  </si>
+  <si>
+    <t>λ</t>
+  </si>
+  <si>
+    <t>Выборочное ср</t>
+  </si>
+  <si>
+    <t>Несмещенная дисп</t>
+  </si>
+  <si>
+    <t>Смещенная дисп</t>
+  </si>
+  <si>
+    <t>Несмещенное откл</t>
+  </si>
+  <si>
+    <t>Смещенное откл</t>
+  </si>
+  <si>
+    <t>Предположение  λ0</t>
+  </si>
+  <si>
+    <t>6.</t>
+  </si>
+  <si>
+    <t>7.</t>
+  </si>
+  <si>
+    <t>Столбец1</t>
+  </si>
+  <si>
+    <t>0,1 уровень знач</t>
+  </si>
+  <si>
+    <t>0.05 уровень знач</t>
+  </si>
+  <si>
+    <t>Кр. точка для мат.ож</t>
+  </si>
+  <si>
+    <t>Точность мат. Ож</t>
+  </si>
+  <si>
+    <t>Л кр. точка для дисп</t>
+  </si>
+  <si>
+    <t>Пр кр. точка для дисп</t>
+  </si>
+  <si>
+    <t>Л гр для дисп</t>
+  </si>
+  <si>
+    <t>Пр гр для дисп</t>
+  </si>
+  <si>
+    <t>объем выборки</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>уровень знач</t>
+  </si>
+  <si>
+    <t xml:space="preserve">коэфф </t>
+  </si>
+  <si>
+    <t>Дост объем для м/о</t>
+  </si>
+  <si>
+    <t>Дост объем для дисп</t>
+  </si>
+  <si>
+    <t>0.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Часть III: Проверка статистических гипотез.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">гипотеза о величине математического ожидания случайной величины </t>
+  </si>
+  <si>
+    <t>предположение  m0</t>
+  </si>
+  <si>
+    <t>предположение  0^2</t>
+  </si>
+  <si>
+    <t>m0 = 342000</t>
+  </si>
+  <si>
+    <t>o^2 = 60000000000</t>
+  </si>
+  <si>
+    <t>ур знач</t>
+  </si>
+  <si>
+    <t>статистика</t>
+  </si>
+  <si>
+    <t>пр кр точка</t>
+  </si>
+  <si>
+    <t>л кр точка</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Пирсона </t>
+  </si>
+  <si>
+    <t>номер интервала</t>
+  </si>
+  <si>
+    <t>Интервал</t>
+  </si>
+  <si>
+    <t>Л граница</t>
+  </si>
+  <si>
+    <t>ПР граница</t>
+  </si>
+  <si>
+    <t>Частота</t>
+  </si>
+  <si>
+    <t>Гип вер</t>
+  </si>
+  <si>
+    <t>(li-n*pi)^2/(n*pi)</t>
+  </si>
+  <si>
+    <t>беск-</t>
+  </si>
+  <si>
+    <t>(-беск;290186.1]</t>
+  </si>
+  <si>
+    <t>(290186.1; 420471.2]</t>
+  </si>
+  <si>
+    <t>( 420471.2;550756.3]</t>
+  </si>
+  <si>
+    <t>(550756.3; 681041.4]</t>
+  </si>
+  <si>
+    <t>( 681041.4;+беск)</t>
+  </si>
+  <si>
+    <t>+ беск.</t>
+  </si>
+  <si>
+    <t>гип вер</t>
+  </si>
+  <si>
+    <t>СТАТИСТИКА</t>
+  </si>
+  <si>
+    <t>Правая кр.точка</t>
+  </si>
+  <si>
+    <t>Колмогоров</t>
+  </si>
+  <si>
+    <t>Граница</t>
+  </si>
+  <si>
+    <t>Разность значений</t>
+  </si>
+  <si>
+    <t>Максимум:</t>
+  </si>
+  <si>
+    <t>Статистика:</t>
+  </si>
+  <si>
+    <t>Теор. функ. распред</t>
+  </si>
+  <si>
+    <t>Отн. Частота</t>
+  </si>
+  <si>
+    <t>Эмп. функц распред.</t>
+  </si>
+  <si>
+    <t>29615.9 - 159901</t>
+  </si>
+  <si>
+    <t>выборка 1</t>
+  </si>
+  <si>
+    <t>выборка 2</t>
+  </si>
+  <si>
+    <t>Объем подвыборки 1:</t>
+  </si>
+  <si>
+    <t>Объем подвыборки 2:</t>
+  </si>
+  <si>
+    <t>кол-во интервалов</t>
+  </si>
+  <si>
+    <t>Длина интервала:</t>
+  </si>
+  <si>
+    <t>граница</t>
+  </si>
+  <si>
+    <t>Эмп. функция распред. 2</t>
+  </si>
+  <si>
+    <t>Эмп. функ распред. 2</t>
+  </si>
+  <si>
+    <t>макс</t>
   </si>
 </sst>
 </file>
@@ -2974,9 +3227,17 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="14">
+  <fonts count="18">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -3071,6 +3332,26 @@
       <color theme="1"/>
       <name val="Times New Roman,Italic"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Times New Roman,Italic"/>
+    </font>
+    <font>
+      <sz val="15"/>
+      <color rgb="FF444444"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -3086,7 +3367,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -3163,61 +3444,98 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF95B3D7"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF95B3D7"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="4" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="4" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="4">
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -3228,6 +3546,1895 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ru-RU"/>
+              <a:t>Кумулята</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ru-RU" baseline="0"/>
+              <a:t> 1</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t>.3</a:t>
+            </a:r>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="3.9442119944211991E-2"/>
+          <c:y val="9.2330827067669166E-2"/>
+          <c:w val="0.93080427708042768"/>
+          <c:h val="0.74103098015003765"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'14'!$F$19:$M$19</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>29615.9</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15990</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>290186.1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>420471.2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>550756.3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>681041.4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v> 811326.5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>941611.6</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'14'!$F$24:$M$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.27142857142857141</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.55714285714285716</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.67142857142857149</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.78571428571428581</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.88571428571428579</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.9285714285714286</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-8784-1E4A-BB70-4AD09A9DF5C8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="1376624688"/>
+        <c:axId val="1376619280"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1376624688"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1376619280"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1376619280"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1376624688"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ru-RU"/>
+              <a:t>Гистограмма 1</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>.4</a:t>
+            </a:r>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>'14'!$G$23:$M$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>2.0833438414272702E-6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.1929935172918635E-6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.7719740691674541E-7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.7719740691674541E-7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.6754773105215234E-7</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.2894902759377953E-7</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5.4824837932296588E-7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-9AC6-D74B-A679-D6421D89D26E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="0"/>
+        <c:overlap val="100"/>
+        <c:axId val="1404994432"/>
+        <c:axId val="1405011984"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1404994432"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1405011984"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1405011984"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1404994432"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>317500</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>749300</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Диаграмма 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{26C17C8E-D087-1449-BEC3-86286C843E8E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>69850</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>1619250</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="Диаграмма 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CE703F7E-3D87-F14C-BC51-6CA89068BC57}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{CDFC7EB7-EB25-E642-86C1-3D29EA4CCDF6}" name="Таблица1" displayName="Таблица1" ref="K73:M80" totalsRowShown="0">
+  <autoFilter ref="K73:M80" xr:uid="{52B6E1A8-95F3-F04B-AF97-DEF00D9317D4}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{5A8A6DC2-A4AA-1C4E-AB5F-5A3E3FC3F6DD}" name="0"/>
+    <tableColumn id="2" xr3:uid="{EAAA518D-7488-7D4A-BA94-C2B302198670}" name="0,1 уровень знач" dataDxfId="3">
+      <calculatedColumnFormula>_xlfn.СТЬЮДЕНТ.ОБР.2Х(0.1,L69-1)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="3" xr3:uid="{FC4B4FD7-D819-8444-A7F1-43CF33F32A70}" name="0.05 уровень знач"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{B3D51A3F-3F56-8B42-B5AC-6F0FE5CC01A0}" name="Таблица2" displayName="Таблица2" ref="H87:J92" totalsRowShown="0">
+  <autoFilter ref="H87:J92" xr:uid="{D7B7478C-4A0A-754B-BD05-01A3CEAF4C5F}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{F8D703AC-21E3-1940-82C0-3233CE389016}" name="Столбец1"/>
+    <tableColumn id="2" xr3:uid="{58018E42-B4A6-ED43-B145-0D35F6B64E28}" name="10"/>
+    <tableColumn id="3" xr3:uid="{DDA0F116-DB7B-6B46-9B5F-901925E8F613}" name="0.1"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{F09870E4-8C2F-DD46-A951-A8C5603D9E29}" name="Таблица3" displayName="Таблица3" ref="H107:J111" totalsRowShown="0">
+  <autoFilter ref="H107:J111" xr:uid="{40CE2A59-0CAB-D54C-A2AA-B8B495ECE9EB}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{E59B20C0-41C1-FF4A-8AB9-6436E072C2EE}" name="Столбец1"/>
+    <tableColumn id="2" xr3:uid="{AAC655D4-D25F-D54C-90AE-948479985E8A}" name="m0 = 342000"/>
+    <tableColumn id="3" xr3:uid="{777EAA53-9687-B641-A3EF-5F81F91917A7}" name="o^2 = 60000000000"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{B80CF137-4389-7F43-B17D-C5B76B982C0C}" name="Таблица4" displayName="Таблица4" ref="H119:N124" totalsRowShown="0">
+  <autoFilter ref="H119:N124" xr:uid="{8637FEC5-2438-5248-8086-9019C5D27828}"/>
+  <tableColumns count="7">
+    <tableColumn id="1" xr3:uid="{F668E5A9-DCED-374D-BAAD-1E3613962E2B}" name="номер интервала"/>
+    <tableColumn id="2" xr3:uid="{CD22E23D-6B67-794E-90D4-930CB7588DD4}" name="Интервал"/>
+    <tableColumn id="3" xr3:uid="{1305D6C4-20A8-BF47-9FFB-51DFF9828C12}" name="Л граница" dataDxfId="2">
+      <calculatedColumnFormula>-  беск</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="4" xr3:uid="{8C3EF98E-F7F8-4248-BA9B-90BD90C8CAE7}" name="ПР граница"/>
+    <tableColumn id="5" xr3:uid="{615D0789-121B-C84E-A609-5325D1103990}" name="Частота" dataDxfId="1">
+      <calculatedColumnFormula>ЧАСТОТА(B3:B72,K119:K120)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="6" xr3:uid="{59451BEB-CBE0-2445-B261-CA09A9F4FF6C}" name="Гип вер" dataDxfId="0"/>
+    <tableColumn id="7" xr3:uid="{E12D19AA-EF42-3741-ABA8-E31B6F1B227B}" name="(li-n*pi)^2/(n*pi)"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -6748,23 +8955,27 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
-  <dimension ref="A1:N73"/>
+  <dimension ref="A1:P217"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:B72"/>
+    <sheetView tabSelected="1" topLeftCell="A181" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="M184" sqref="M184"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="24.5" customWidth="1"/>
     <col min="2" max="2" width="17.5" customWidth="1"/>
+    <col min="4" max="4" width="6.83203125" customWidth="1"/>
+    <col min="5" max="5" width="8.83203125" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="15.1640625" customWidth="1"/>
     <col min="7" max="7" width="16.5" customWidth="1"/>
-    <col min="8" max="8" width="16" customWidth="1"/>
+    <col min="8" max="8" width="22.83203125" customWidth="1"/>
     <col min="9" max="9" width="19" customWidth="1"/>
     <col min="10" max="10" width="20.6640625" customWidth="1"/>
     <col min="11" max="11" width="21.5" customWidth="1"/>
     <col min="12" max="12" width="20.83203125" customWidth="1"/>
     <col min="13" max="13" width="23.6640625" customWidth="1"/>
+    <col min="14" max="14" width="11.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="16">
@@ -6780,7 +8991,7 @@
       </c>
     </row>
     <row r="3" spans="1:9" ht="16">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="32" t="s">
         <v>94</v>
       </c>
       <c r="B3" s="9">
@@ -6956,7 +9167,7 @@
         <v>934</v>
       </c>
       <c r="H18">
-        <f>(MAX(B3:B72)-MIN(B3:B72))/7</f>
+        <f>(МАКС(B3:B72)-МИН(B3:B72))/7</f>
         <v>130285.05714285714</v>
       </c>
     </row>
@@ -6967,6 +9178,33 @@
       <c r="B19" s="9">
         <v>162002.79999999999</v>
       </c>
+      <c r="D19" t="s">
+        <v>947</v>
+      </c>
+      <c r="F19" t="s">
+        <v>954</v>
+      </c>
+      <c r="G19">
+        <v>15990</v>
+      </c>
+      <c r="H19" t="s">
+        <v>948</v>
+      </c>
+      <c r="I19" t="s">
+        <v>949</v>
+      </c>
+      <c r="J19" t="s">
+        <v>950</v>
+      </c>
+      <c r="K19" t="s">
+        <v>951</v>
+      </c>
+      <c r="L19" t="s">
+        <v>952</v>
+      </c>
+      <c r="M19" t="s">
+        <v>953</v>
+      </c>
     </row>
     <row r="20" spans="1:14" ht="16">
       <c r="A20" s="8" t="s">
@@ -6975,26 +9213,29 @@
       <c r="B20" s="9">
         <v>480763.7</v>
       </c>
+      <c r="F20" t="s">
+        <v>942</v>
+      </c>
       <c r="G20" s="24" t="s">
+        <v>1017</v>
+      </c>
+      <c r="H20" s="22" t="s">
         <v>935</v>
       </c>
-      <c r="H20" s="22" t="s">
+      <c r="I20" s="24" t="s">
         <v>936</v>
       </c>
-      <c r="I20" s="24" t="s">
+      <c r="J20" s="24" t="s">
         <v>937</v>
       </c>
-      <c r="J20" s="24" t="s">
+      <c r="K20" s="24" t="s">
         <v>938</v>
       </c>
-      <c r="K20" s="24" t="s">
+      <c r="L20" s="24" t="s">
         <v>939</v>
       </c>
-      <c r="L20" s="24" t="s">
+      <c r="M20" s="24" t="s">
         <v>940</v>
-      </c>
-      <c r="M20" s="24" t="s">
-        <v>941</v>
       </c>
     </row>
     <row r="21" spans="1:14" ht="16">
@@ -7004,6 +9245,9 @@
       <c r="B21" s="9">
         <v>468621</v>
       </c>
+      <c r="F21" t="s">
+        <v>943</v>
+      </c>
       <c r="G21">
         <v>19</v>
       </c>
@@ -7036,6 +9280,9 @@
       <c r="B22" s="9">
         <v>356071.5</v>
       </c>
+      <c r="F22" t="s">
+        <v>944</v>
+      </c>
       <c r="G22" s="21">
         <f>19/70</f>
         <v>0.27142857142857141</v>
@@ -7075,6 +9322,9 @@
       <c r="B23" s="9">
         <v>264621.7</v>
       </c>
+      <c r="F23" t="s">
+        <v>945</v>
+      </c>
       <c r="G23">
         <f>G22/H18</f>
         <v>2.0833438414272702E-6</v>
@@ -7111,6 +9361,40 @@
       <c r="B24" s="9">
         <v>673916.1</v>
       </c>
+      <c r="D24" t="s">
+        <v>946</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
+      <c r="G24">
+        <f>G22</f>
+        <v>0.27142857142857141</v>
+      </c>
+      <c r="H24">
+        <f>G24+H22</f>
+        <v>0.55714285714285716</v>
+      </c>
+      <c r="I24">
+        <f>H24+I22</f>
+        <v>0.67142857142857149</v>
+      </c>
+      <c r="J24">
+        <f>I24+J22</f>
+        <v>0.78571428571428581</v>
+      </c>
+      <c r="K24">
+        <f>J24+K22</f>
+        <v>0.88571428571428579</v>
+      </c>
+      <c r="L24">
+        <f>K24+L22</f>
+        <v>0.9285714285714286</v>
+      </c>
+      <c r="M24">
+        <f t="shared" ref="H24:M24" si="0">L24+M22</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="25" spans="1:14" ht="16">
       <c r="A25" s="8" t="s">
@@ -7136,7 +9420,7 @@
         <v>108191.2</v>
       </c>
       <c r="G27" s="20" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
     </row>
     <row r="28" spans="1:14" ht="16">
@@ -7163,12 +9447,6 @@
       <c r="B30" s="9">
         <v>211330</v>
       </c>
-      <c r="G30">
-        <v>0</v>
-      </c>
-      <c r="H30" t="s">
-        <v>943</v>
-      </c>
     </row>
     <row r="31" spans="1:14" ht="16">
       <c r="A31" s="8" t="s">
@@ -7442,7 +9720,7 @@
         <v>498522.8</v>
       </c>
     </row>
-    <row r="65" spans="1:2" ht="16">
+    <row r="65" spans="1:13" ht="16">
       <c r="A65" s="8" t="s">
         <v>169</v>
       </c>
@@ -7450,7 +9728,7 @@
         <v>374171.6</v>
       </c>
     </row>
-    <row r="66" spans="1:2" ht="16">
+    <row r="66" spans="1:13" ht="16">
       <c r="A66" s="8" t="s">
         <v>170</v>
       </c>
@@ -7458,7 +9736,7 @@
         <v>540411.69999999995</v>
       </c>
     </row>
-    <row r="67" spans="1:2" ht="16">
+    <row r="67" spans="1:13" ht="16">
       <c r="A67" s="8" t="s">
         <v>171</v>
       </c>
@@ -7466,7 +9744,7 @@
         <v>126984.3</v>
       </c>
     </row>
-    <row r="68" spans="1:2" ht="16">
+    <row r="68" spans="1:13" ht="16">
       <c r="A68" s="8" t="s">
         <v>172</v>
       </c>
@@ -7474,15 +9752,21 @@
         <v>555018.19999999995</v>
       </c>
     </row>
-    <row r="69" spans="1:2" ht="16">
+    <row r="69" spans="1:13" ht="16">
       <c r="A69" s="8" t="s">
         <v>173</v>
       </c>
       <c r="B69" s="9">
         <v>434113.2</v>
       </c>
-    </row>
-    <row r="70" spans="1:2" ht="16">
+      <c r="K69" t="s">
+        <v>973</v>
+      </c>
+      <c r="L69">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13" ht="16">
       <c r="A70" s="8" t="s">
         <v>174</v>
       </c>
@@ -7490,28 +9774,1317 @@
         <v>234010.2</v>
       </c>
     </row>
-    <row r="71" spans="1:2" ht="16">
+    <row r="71" spans="1:13" ht="16">
       <c r="A71" s="8" t="s">
         <v>175</v>
       </c>
       <c r="B71" s="9">
         <v>76875.3</v>
       </c>
-    </row>
-    <row r="72" spans="1:2" ht="16">
+      <c r="H71" t="s">
+        <v>962</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13" ht="16">
       <c r="A72" s="8" t="s">
         <v>176</v>
       </c>
       <c r="B72" s="9">
         <v>641602.9</v>
       </c>
-    </row>
-    <row r="73" spans="1:2" ht="16">
+      <c r="K72" s="19" t="s">
+        <v>963</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13" ht="16">
       <c r="A73" s="8"/>
       <c r="B73" s="8"/>
+      <c r="H73" t="s">
+        <v>956</v>
+      </c>
+      <c r="I73" s="25">
+        <f>СРЗНАЧ(B3:B72)</f>
+        <v>341910.13714285719</v>
+      </c>
+      <c r="K73" t="s">
+        <v>974</v>
+      </c>
+      <c r="L73" t="s">
+        <v>965</v>
+      </c>
+      <c r="M73" t="s">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13">
+      <c r="H74" t="s">
+        <v>957</v>
+      </c>
+      <c r="I74">
+        <f>_xlfn.ДИСП.В(B3:B72)</f>
+        <v>58747762705.811043</v>
+      </c>
+      <c r="K74" t="s">
+        <v>967</v>
+      </c>
+      <c r="L74">
+        <f t="shared" ref="L74" si="1">_xlfn.СТЬЮДЕНТ.ОБР.2Х(0.1,L69-1)</f>
+        <v>1.6672385486685533</v>
+      </c>
+      <c r="M74">
+        <f>_xlfn.СТЬЮДЕНТ.ОБР.2Х(0.05,L69-1)</f>
+        <v>1.9949454151072357</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13">
+      <c r="H75" t="s">
+        <v>958</v>
+      </c>
+      <c r="I75">
+        <f>_xlfn.ДИСП.Г(B3:B72)</f>
+        <v>57908508952.870865</v>
+      </c>
+      <c r="K75" t="s">
+        <v>968</v>
+      </c>
+      <c r="L75">
+        <f>L74*I76/КОРЕНЬ(L69)</f>
+        <v>48299.695095986892</v>
+      </c>
+      <c r="M75">
+        <f>M74*I76/SQRT(L69)</f>
+        <v>57793.32259307777</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13">
+      <c r="H76" t="s">
+        <v>959</v>
+      </c>
+      <c r="I76">
+        <f>_xlfn.СТАНДОТКЛОН.В(B3:B72)</f>
+        <v>242379.37764135597</v>
+      </c>
+      <c r="K76" t="s">
+        <v>970</v>
+      </c>
+      <c r="L76" s="26">
+        <f>_xlfn.ХИ2.ОБР.ПХ(0.1/2,L69-1)</f>
+        <v>89.391207872507977</v>
+      </c>
+      <c r="M76">
+        <f>_xlfn.ХИ2.ОБР.ПХ(0.05/2,L69-1)</f>
+        <v>93.856471238685401</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13">
+      <c r="H77" t="s">
+        <v>960</v>
+      </c>
+      <c r="I77">
+        <f>_xlfn.СТАНДОТКЛОН.Г(B3:B72)</f>
+        <v>240641.86866144233</v>
+      </c>
+      <c r="K77" t="s">
+        <v>969</v>
+      </c>
+      <c r="L77">
+        <f>_xlfn.ХИ2.ОБР.ПХ((2-0.1)/2,L69-1)</f>
+        <v>50.879243483328644</v>
+      </c>
+      <c r="M77" s="33">
+        <v>50.87924348</v>
+      </c>
+    </row>
+    <row r="78" spans="1:13">
+      <c r="H78" t="s">
+        <v>955</v>
+      </c>
+      <c r="I78">
+        <f>1/I73</f>
+        <v>2.9247451051215223E-6</v>
+      </c>
+      <c r="K78" t="s">
+        <v>971</v>
+      </c>
+      <c r="L78">
+        <f>(L69-1)*I74/L76</f>
+        <v>45346692624.204201</v>
+      </c>
+      <c r="M78">
+        <f>(L69-1)*I74/M76</f>
+        <v>43189303552.573433</v>
+      </c>
+    </row>
+    <row r="79" spans="1:13">
+      <c r="H79" t="s">
+        <v>961</v>
+      </c>
+      <c r="I79">
+        <f>ROUNDUP(I78,2)</f>
+        <v>0.01</v>
+      </c>
+      <c r="K79" t="s">
+        <v>972</v>
+      </c>
+      <c r="L79">
+        <f>(L69-1)*I74/L77</f>
+        <v>79670909966.049011</v>
+      </c>
+      <c r="M79">
+        <f>(L69-1)*I74/M77</f>
+        <v>79670909971.261276</v>
+      </c>
+    </row>
+    <row r="80" spans="1:13">
+      <c r="H80" t="s">
+        <v>983</v>
+      </c>
+      <c r="I80">
+        <v>342000</v>
+      </c>
+    </row>
+    <row r="81" spans="8:10">
+      <c r="H81" t="s">
+        <v>984</v>
+      </c>
+      <c r="I81">
+        <v>60000000000</v>
+      </c>
+    </row>
+    <row r="87" spans="8:10">
+      <c r="H87" t="s">
+        <v>964</v>
+      </c>
+      <c r="I87" t="s">
+        <v>975</v>
+      </c>
+      <c r="J87" t="s">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="88" spans="8:10">
+      <c r="H88" t="s">
+        <v>976</v>
+      </c>
+      <c r="I88">
+        <v>0.1</v>
+      </c>
+      <c r="J88">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="89" spans="8:10">
+      <c r="H89" t="s">
+        <v>977</v>
+      </c>
+      <c r="I89">
+        <f>_xlfn.NORM.S.INV((2-I88)/2)</f>
+        <v>1.6448536269514715</v>
+      </c>
+      <c r="J89">
+        <f>_xlfn.NORM.S.INV((2-J88)/2)</f>
+        <v>1.6448536269514715</v>
+      </c>
+    </row>
+    <row r="90" spans="8:10">
+      <c r="H90" t="s">
+        <v>978</v>
+      </c>
+      <c r="I90">
+        <f>POWER(I89,2)*I74/POWER(10,2)</f>
+        <v>1589446248.3145754</v>
+      </c>
+      <c r="J90">
+        <f>POWER(I89,2)*I74/POWER(0.1,2)</f>
+        <v>15894462483145.752</v>
+      </c>
+    </row>
+    <row r="91" spans="8:10">
+      <c r="H91" t="s">
+        <v>979</v>
+      </c>
+      <c r="I91">
+        <f>POWER(I89,2)*POWER(I75,2)/POWER(10,2)+1</f>
+        <v>9.0727569982051123E+19</v>
+      </c>
+      <c r="J91">
+        <f>POWER(I90,2)*I75/POWER(0.1,2)</f>
+        <v>1.4629654638937461E+31</v>
+      </c>
+    </row>
+    <row r="100" spans="8:16" ht="100">
+      <c r="I100" s="27" t="s">
+        <v>981</v>
+      </c>
+    </row>
+    <row r="105" spans="8:16" ht="16">
+      <c r="H105" s="20" t="s">
+        <v>982</v>
+      </c>
+      <c r="P105" s="29"/>
+    </row>
+    <row r="107" spans="8:16" ht="16">
+      <c r="H107" t="s">
+        <v>964</v>
+      </c>
+      <c r="I107" s="20" t="s">
+        <v>985</v>
+      </c>
+      <c r="J107" t="s">
+        <v>986</v>
+      </c>
+    </row>
+    <row r="108" spans="8:16" ht="16">
+      <c r="H108" t="s">
+        <v>987</v>
+      </c>
+      <c r="I108" s="20">
+        <v>0.1</v>
+      </c>
+      <c r="J108">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="109" spans="8:16">
+      <c r="H109" t="s">
+        <v>988</v>
+      </c>
+      <c r="I109">
+        <f>(I73-I80)/I76*КОРЕНЬ(L69)</f>
+        <v>-3.1019413108974428E-3</v>
+      </c>
+      <c r="J109">
+        <f>(L69-1)*I74/I81</f>
+        <v>67.559927111682697</v>
+      </c>
+    </row>
+    <row r="110" spans="8:16">
+      <c r="H110" t="s">
+        <v>989</v>
+      </c>
+      <c r="I110">
+        <f>_xlfn.СТЬЮДЕНТ.ОБР.2Х(I108,L69-1)</f>
+        <v>1.6672385486685533</v>
+      </c>
+      <c r="J110">
+        <f>_xlfn.ХИ2.ОБР.ПХ(J108,L69-1)</f>
+        <v>84.417873007583594</v>
+      </c>
+    </row>
+    <row r="111" spans="8:16">
+      <c r="H111" t="s">
+        <v>990</v>
+      </c>
+      <c r="I111">
+        <f>-I110</f>
+        <v>-1.6672385486685533</v>
+      </c>
+      <c r="J111">
+        <f>_xlfn.CHISQ.INV.RT((2-J108)/2,L69-1)</f>
+        <v>50.879243483328644</v>
+      </c>
+    </row>
+    <row r="117" spans="8:14" ht="16">
+      <c r="H117" s="20" t="s">
+        <v>991</v>
+      </c>
+    </row>
+    <row r="119" spans="8:14">
+      <c r="H119" t="s">
+        <v>992</v>
+      </c>
+      <c r="I119" t="s">
+        <v>993</v>
+      </c>
+      <c r="J119" t="s">
+        <v>994</v>
+      </c>
+      <c r="K119" t="s">
+        <v>995</v>
+      </c>
+      <c r="L119" t="s">
+        <v>996</v>
+      </c>
+      <c r="M119" t="s">
+        <v>997</v>
+      </c>
+      <c r="N119" t="s">
+        <v>998</v>
+      </c>
+    </row>
+    <row r="120" spans="8:14">
+      <c r="H120">
+        <v>1</v>
+      </c>
+      <c r="I120" t="s">
+        <v>1000</v>
+      </c>
+      <c r="J120" t="s">
+        <v>999</v>
+      </c>
+      <c r="K120" s="29">
+        <v>290186.09999999998</v>
+      </c>
+      <c r="L120">
+        <f>FREQUENCY(B3:B72,K120)</f>
+        <v>39</v>
+      </c>
+      <c r="M120" s="29"/>
+    </row>
+    <row r="121" spans="8:14">
+      <c r="H121">
+        <v>2</v>
+      </c>
+      <c r="I121" t="s">
+        <v>1001</v>
+      </c>
+      <c r="J121">
+        <v>290186.09999999998</v>
+      </c>
+      <c r="K121">
+        <v>420471.2</v>
+      </c>
+      <c r="L121">
+        <v>8</v>
+      </c>
+      <c r="M121" s="29"/>
+    </row>
+    <row r="122" spans="8:14">
+      <c r="H122">
+        <v>3</v>
+      </c>
+      <c r="I122" t="s">
+        <v>1002</v>
+      </c>
+      <c r="J122">
+        <v>420471.2</v>
+      </c>
+      <c r="K122">
+        <v>550756.30000000005</v>
+      </c>
+      <c r="L122">
+        <v>8</v>
+      </c>
+      <c r="M122" s="29"/>
+    </row>
+    <row r="123" spans="8:14">
+      <c r="H123">
+        <v>4</v>
+      </c>
+      <c r="I123" t="s">
+        <v>1003</v>
+      </c>
+      <c r="J123">
+        <v>550756.30000000005</v>
+      </c>
+      <c r="K123">
+        <v>681041.4</v>
+      </c>
+      <c r="L123">
+        <v>7</v>
+      </c>
+      <c r="M123" s="29"/>
+    </row>
+    <row r="124" spans="8:14">
+      <c r="H124">
+        <v>5</v>
+      </c>
+      <c r="I124" t="s">
+        <v>1004</v>
+      </c>
+      <c r="J124">
+        <v>681041.4</v>
+      </c>
+      <c r="K124" s="28" t="s">
+        <v>1005</v>
+      </c>
+      <c r="L124">
+        <v>8</v>
+      </c>
+      <c r="M124" s="29"/>
+    </row>
+    <row r="126" spans="8:14">
+      <c r="M126" t="s">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="127" spans="8:14">
+      <c r="M127">
+        <f>1-EXP(-I79*K120)</f>
+        <v>1</v>
+      </c>
+      <c r="N127">
+        <f>POWER((L120-70*M127),2)/(70*M127)</f>
+        <v>13.728571428571428</v>
+      </c>
+    </row>
+    <row r="128" spans="8:14">
+      <c r="M128">
+        <f>1-EXP(-I79*K121)-1+EXP(-I79*J121)</f>
+        <v>0</v>
+      </c>
+      <c r="N128" t="e">
+        <f>POWER((L120-70*M128),2)/(70*M128)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="129" spans="8:14">
+      <c r="M129">
+        <f>1-EXP(-I79*K122)-1+EXP(-I79*J122)</f>
+        <v>0</v>
+      </c>
+      <c r="N129" t="e">
+        <f>POWER((L120-70*M129),2)/(70*M129)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="130" spans="8:14">
+      <c r="M130">
+        <f>1-EXP(-I79*K123)-1+EXP(-I79*J123)</f>
+        <v>0</v>
+      </c>
+      <c r="N130" t="e">
+        <f>POWER((L120-70*M130),2)/(70*M130)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="131" spans="8:14">
+      <c r="M131">
+        <f>EXP(-I79*J124)</f>
+        <v>0</v>
+      </c>
+      <c r="N131" t="e">
+        <f>POWER((L120-70*M131),2)/(70*M131)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="134" spans="8:14">
+      <c r="M134" t="s">
+        <v>1007</v>
+      </c>
+      <c r="N134">
+        <f>N127</f>
+        <v>13.728571428571428</v>
+      </c>
+    </row>
+    <row r="135" spans="8:14" ht="20">
+      <c r="M135" s="30" t="s">
+        <v>1008</v>
+      </c>
+      <c r="N135" s="30">
+        <f>_xlfn.CHISQ.INV.RT(0.1,3)</f>
+        <v>6.2513886311703235</v>
+      </c>
+    </row>
+    <row r="140" spans="8:14" ht="20">
+      <c r="H140" s="30" t="s">
+        <v>1009</v>
+      </c>
+    </row>
+    <row r="141" spans="8:14">
+      <c r="H141" t="s">
+        <v>1010</v>
+      </c>
+      <c r="I141" t="s">
+        <v>1014</v>
+      </c>
+      <c r="J141" t="s">
+        <v>1015</v>
+      </c>
+      <c r="K141" t="s">
+        <v>1016</v>
+      </c>
+      <c r="L141" t="s">
+        <v>1011</v>
+      </c>
+    </row>
+    <row r="142" spans="8:14">
+      <c r="H142">
+        <v>29615.9</v>
+      </c>
+      <c r="I142">
+        <f>1-EXP(-I79*H142)</f>
+        <v>1</v>
+      </c>
+      <c r="K142">
+        <v>0</v>
+      </c>
+      <c r="L142">
+        <f t="shared" ref="L142:L149" si="2">ABS(I142-K142)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143" spans="8:14">
+      <c r="H143" s="31">
+        <v>159901</v>
+      </c>
+      <c r="I143">
+        <f>1-EXP(-I79*H143)</f>
+        <v>1</v>
+      </c>
+      <c r="J143">
+        <f>19/70</f>
+        <v>0.27142857142857141</v>
+      </c>
+      <c r="K143">
+        <f t="shared" ref="K143:K149" si="3">K142+J143</f>
+        <v>0.27142857142857141</v>
+      </c>
+      <c r="L143">
+        <f t="shared" si="2"/>
+        <v>0.72857142857142865</v>
+      </c>
+    </row>
+    <row r="144" spans="8:14">
+      <c r="H144">
+        <v>290186.09999999998</v>
+      </c>
+      <c r="I144">
+        <f>1-EXP(-I79*H144)</f>
+        <v>1</v>
+      </c>
+      <c r="J144">
+        <f>20/70</f>
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="K144">
+        <f t="shared" si="3"/>
+        <v>0.55714285714285716</v>
+      </c>
+      <c r="L144">
+        <f>ABS(I144-K144)</f>
+        <v>0.44285714285714284</v>
+      </c>
+    </row>
+    <row r="145" spans="7:12">
+      <c r="H145">
+        <v>420471.2</v>
+      </c>
+      <c r="I145">
+        <f>1-EXP(-I79*H145)</f>
+        <v>1</v>
+      </c>
+      <c r="J145">
+        <f>8/70</f>
+        <v>0.11428571428571428</v>
+      </c>
+      <c r="K145">
+        <f t="shared" si="3"/>
+        <v>0.67142857142857149</v>
+      </c>
+      <c r="L145">
+        <f>ABS(I145-K145)</f>
+        <v>0.32857142857142851</v>
+      </c>
+    </row>
+    <row r="146" spans="7:12">
+      <c r="H146">
+        <v>550756.30000000005</v>
+      </c>
+      <c r="I146">
+        <f>1-EXP(-I79*H146)</f>
+        <v>1</v>
+      </c>
+      <c r="J146">
+        <f>8/70</f>
+        <v>0.11428571428571428</v>
+      </c>
+      <c r="K146">
+        <f>K145+J146</f>
+        <v>0.78571428571428581</v>
+      </c>
+      <c r="L146">
+        <f t="shared" si="2"/>
+        <v>0.21428571428571419</v>
+      </c>
+    </row>
+    <row r="147" spans="7:12">
+      <c r="H147">
+        <v>681041.4</v>
+      </c>
+      <c r="I147">
+        <f>1-EXP(-I79*H147)</f>
+        <v>1</v>
+      </c>
+      <c r="J147">
+        <f>7/70</f>
+        <v>0.1</v>
+      </c>
+      <c r="K147">
+        <f t="shared" si="3"/>
+        <v>0.88571428571428579</v>
+      </c>
+      <c r="L147">
+        <f t="shared" si="2"/>
+        <v>0.11428571428571421</v>
+      </c>
+    </row>
+    <row r="148" spans="7:12">
+      <c r="H148">
+        <v>811326.5</v>
+      </c>
+      <c r="I148">
+        <f>1-EXP(-I79*H148)</f>
+        <v>1</v>
+      </c>
+      <c r="J148">
+        <f>3/70</f>
+        <v>4.2857142857142858E-2</v>
+      </c>
+      <c r="K148">
+        <f t="shared" si="3"/>
+        <v>0.9285714285714286</v>
+      </c>
+      <c r="L148">
+        <f>ABS(I148-K148)</f>
+        <v>7.1428571428571397E-2</v>
+      </c>
+    </row>
+    <row r="149" spans="7:12">
+      <c r="H149">
+        <v>941611.6</v>
+      </c>
+      <c r="I149">
+        <f>1-EXP(-I79*H149)</f>
+        <v>1</v>
+      </c>
+      <c r="J149">
+        <f>5/70</f>
+        <v>7.1428571428571425E-2</v>
+      </c>
+      <c r="K149">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="L149">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="7:12">
+      <c r="K150" t="s">
+        <v>1012</v>
+      </c>
+      <c r="L150">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151" spans="7:12">
+      <c r="H151" t="s">
+        <v>1013</v>
+      </c>
+      <c r="I151">
+        <f>SQRT(70)*1</f>
+        <v>8.3666002653407556</v>
+      </c>
+    </row>
+    <row r="158" spans="7:12">
+      <c r="G158">
+        <v>59512.800000000003</v>
+      </c>
+      <c r="H158">
+        <v>29615.9</v>
+      </c>
+      <c r="J158" t="s">
+        <v>1018</v>
+      </c>
+      <c r="L158" t="s">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="159" spans="7:12">
+      <c r="G159">
+        <v>59512.800000000003</v>
+      </c>
+      <c r="H159">
+        <v>36888.1</v>
+      </c>
+    </row>
+    <row r="160" spans="7:12" ht="20">
+      <c r="G160">
+        <v>76875.3</v>
+      </c>
+      <c r="H160">
+        <v>59512.800000000003</v>
+      </c>
+      <c r="J160" t="s">
+        <v>1020</v>
+      </c>
+      <c r="L160" s="30" t="s">
+        <v>1021</v>
+      </c>
+    </row>
+    <row r="161" spans="7:13">
+      <c r="G161">
+        <v>76875.3</v>
+      </c>
+      <c r="H161">
+        <v>59512.800000000003</v>
+      </c>
+      <c r="J161">
+        <v>40</v>
+      </c>
+      <c r="L161">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="162" spans="7:13">
+      <c r="G162">
+        <v>76875.3</v>
+      </c>
+      <c r="H162">
+        <v>65235.8</v>
+      </c>
+      <c r="K162" t="s">
+        <v>1022</v>
+      </c>
+    </row>
+    <row r="163" spans="7:13" ht="20">
+      <c r="G163">
+        <v>76875.3</v>
+      </c>
+      <c r="H163">
+        <v>105992.4</v>
+      </c>
+      <c r="J163">
+        <f>L163</f>
+        <v>6</v>
+      </c>
+      <c r="L163" s="30">
+        <f>TRUNC(1+3.32*LOG10(L161))</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="164" spans="7:13">
+      <c r="G164">
+        <v>99715</v>
+      </c>
+      <c r="H164">
+        <v>108191.2</v>
+      </c>
+    </row>
+    <row r="165" spans="7:13">
+      <c r="G165">
+        <v>108191.2</v>
+      </c>
+      <c r="H165">
+        <v>126984.3</v>
+      </c>
+      <c r="K165" t="s">
+        <v>1023</v>
+      </c>
+    </row>
+    <row r="166" spans="7:13" ht="20">
+      <c r="G166">
+        <v>117598.1</v>
+      </c>
+      <c r="H166">
+        <v>130685.7</v>
+      </c>
+      <c r="J166">
+        <f>L166</f>
+        <v>144664</v>
+      </c>
+      <c r="L166" s="30">
+        <f>ROUND((H217-H158)/L163,0)</f>
+        <v>144664</v>
+      </c>
+    </row>
+    <row r="167" spans="7:13">
+      <c r="G167">
+        <v>117598.1</v>
+      </c>
+      <c r="H167">
+        <v>130685.7</v>
+      </c>
+    </row>
+    <row r="168" spans="7:13">
+      <c r="G168">
+        <v>136512.1</v>
+      </c>
+      <c r="H168">
+        <v>146139.6</v>
+      </c>
+    </row>
+    <row r="169" spans="7:13">
+      <c r="G169">
+        <v>136512.1</v>
+      </c>
+      <c r="H169">
+        <v>162002.79999999999</v>
+      </c>
+    </row>
+    <row r="170" spans="7:13">
+      <c r="G170">
+        <v>146139.6</v>
+      </c>
+      <c r="H170">
+        <v>172315.5</v>
+      </c>
+    </row>
+    <row r="171" spans="7:13">
+      <c r="G171">
+        <v>172315.5</v>
+      </c>
+      <c r="H171">
+        <v>201311.3</v>
+      </c>
+    </row>
+    <row r="172" spans="7:13">
+      <c r="G172">
+        <v>201311.3</v>
+      </c>
+      <c r="H172">
+        <v>201311.3</v>
+      </c>
+    </row>
+    <row r="173" spans="7:13">
+      <c r="G173">
+        <v>209824.2</v>
+      </c>
+      <c r="H173">
+        <v>201311.3</v>
+      </c>
+    </row>
+    <row r="174" spans="7:13">
+      <c r="G174">
+        <v>234010.2</v>
+      </c>
+      <c r="H174">
+        <v>201311.3</v>
+      </c>
+    </row>
+    <row r="175" spans="7:13" ht="20">
+      <c r="G175">
+        <v>240334.9</v>
+      </c>
+      <c r="H175">
+        <v>203266.6</v>
+      </c>
+      <c r="J175" t="s">
+        <v>1024</v>
+      </c>
+      <c r="K175" t="s">
+        <v>1026</v>
+      </c>
+      <c r="L175" t="s">
+        <v>1025</v>
+      </c>
+      <c r="M175" s="30" t="s">
+        <v>1011</v>
+      </c>
+    </row>
+    <row r="176" spans="7:13">
+      <c r="G176">
+        <v>244229.8</v>
+      </c>
+      <c r="H176">
+        <v>209824.2</v>
+      </c>
+      <c r="J176">
+        <v>29615.9</v>
+      </c>
+      <c r="K176">
+        <f>FREQUENCY(G158:G197,J176)/J161</f>
+        <v>0</v>
+      </c>
+      <c r="L176">
+        <f>FREQUENCY(H158:H217,J176)/L161</f>
+        <v>1.6666666666666666E-2</v>
+      </c>
+      <c r="M176">
+        <f>ABS(K176-L176)</f>
+        <v>1.6666666666666666E-2</v>
+      </c>
+    </row>
+    <row r="177" spans="7:13">
+      <c r="G177">
+        <v>264621.7</v>
+      </c>
+      <c r="H177">
+        <v>211330</v>
+      </c>
+      <c r="J177">
+        <f>J176+J166</f>
+        <v>174279.9</v>
+      </c>
+      <c r="K177">
+        <f>FREQUENCY(G158:G197,J177)/J161</f>
+        <v>0.35</v>
+      </c>
+      <c r="L177">
+        <f>FREQUENCY(H158:H217,J177)/L161</f>
+        <v>0.21666666666666667</v>
+      </c>
+      <c r="M177">
+        <f t="shared" ref="M176:M181" si="4">ABS(K177-L177)</f>
+        <v>0.1333333333333333</v>
+      </c>
+    </row>
+    <row r="178" spans="7:13">
+      <c r="G178">
+        <v>264621.7</v>
+      </c>
+      <c r="H178">
+        <v>225504.2</v>
+      </c>
+      <c r="J178">
+        <f>J177+J166</f>
+        <v>318943.90000000002</v>
+      </c>
+      <c r="K178">
+        <f>FREQUENCY(G158:G197,J178)/J161</f>
+        <v>0.67500000000000004</v>
+      </c>
+      <c r="L178">
+        <f>FREQUENCY(H158:H217,J178)/L161</f>
+        <v>0.48333333333333334</v>
+      </c>
+      <c r="M178">
+        <f t="shared" si="4"/>
+        <v>0.19166666666666671</v>
+      </c>
+    </row>
+    <row r="179" spans="7:13">
+      <c r="G179">
+        <v>264621.7</v>
+      </c>
+      <c r="H179">
+        <v>225504.2</v>
+      </c>
+      <c r="J179">
+        <f>J166+J178</f>
+        <v>463607.9</v>
+      </c>
+      <c r="K179">
+        <f>FREQUENCY(G158:G197,J179)/J161</f>
+        <v>0.72499999999999998</v>
+      </c>
+      <c r="L179">
+        <f>FREQUENCY(H158:H217,J179)/L161</f>
+        <v>0.6333333333333333</v>
+      </c>
+      <c r="M179">
+        <f t="shared" si="4"/>
+        <v>9.1666666666666674E-2</v>
+      </c>
+    </row>
+    <row r="180" spans="7:13">
+      <c r="G180">
+        <v>267639</v>
+      </c>
+      <c r="H180">
+        <v>234010.2</v>
+      </c>
+      <c r="J180">
+        <f>J179+J166</f>
+        <v>608271.9</v>
+      </c>
+      <c r="K180">
+        <f>FREQUENCY(G158:G197,J180)/J161</f>
+        <v>0.85</v>
+      </c>
+      <c r="L180">
+        <f>FREQUENCY(H158:H217,J180)/L161</f>
+        <v>0.78333333333333333</v>
+      </c>
+      <c r="M180">
+        <f>ABS(K180-L180)</f>
+        <v>6.6666666666666652E-2</v>
+      </c>
+    </row>
+    <row r="181" spans="7:13">
+      <c r="G181">
+        <v>285622.59999999998</v>
+      </c>
+      <c r="H181">
+        <v>244229.8</v>
+      </c>
+      <c r="J181">
+        <f>J180+J166</f>
+        <v>752935.9</v>
+      </c>
+      <c r="K181">
+        <f>FREQUENCY(G158:G197,J181)/J161</f>
+        <v>0.95</v>
+      </c>
+      <c r="L181">
+        <f>FREQUENCY(H158:H217,J181)/L161</f>
+        <v>0.95</v>
+      </c>
+      <c r="M181">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182" spans="7:13">
+      <c r="G182">
+        <v>288475.59999999998</v>
+      </c>
+      <c r="H182">
+        <v>253831.2</v>
+      </c>
+      <c r="J182">
+        <f>J181+L166</f>
+        <v>897599.9</v>
+      </c>
+      <c r="K182">
+        <v>1</v>
+      </c>
+      <c r="L182">
+        <f>FREQUENCY(H158:H217,J182)/L161</f>
+        <v>1</v>
+      </c>
+      <c r="M182">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183" spans="7:13">
+      <c r="G183">
+        <v>309295</v>
+      </c>
+      <c r="H183">
+        <v>285622.59999999998</v>
+      </c>
+      <c r="L183" t="s">
+        <v>1027</v>
+      </c>
+      <c r="M183">
+        <f>MAX(M176:M182)</f>
+        <v>0.19166666666666671</v>
+      </c>
+    </row>
+    <row r="184" spans="7:13" ht="20">
+      <c r="G184">
+        <v>309295</v>
+      </c>
+      <c r="H184">
+        <v>285622.59999999998</v>
+      </c>
+      <c r="L184" s="30" t="s">
+        <v>1013</v>
+      </c>
+      <c r="M184">
+        <f>SQRT(J161*L161/(J161+L161))*M183</f>
+        <v>0.93897106806688502</v>
+      </c>
+    </row>
+    <row r="185" spans="7:13">
+      <c r="G185">
+        <v>356071.5</v>
+      </c>
+      <c r="H185">
+        <v>288475.59999999998</v>
+      </c>
+    </row>
+    <row r="186" spans="7:13">
+      <c r="G186">
+        <v>430968.7</v>
+      </c>
+      <c r="H186">
+        <v>294862.59999999998</v>
+      </c>
+    </row>
+    <row r="187" spans="7:13">
+      <c r="G187">
+        <v>540411.69999999995</v>
+      </c>
+      <c r="H187">
+        <v>324572.09999999998</v>
+      </c>
+    </row>
+    <row r="188" spans="7:13">
+      <c r="G188">
+        <v>555018.19999999995</v>
+      </c>
+      <c r="H188">
+        <v>356071.5</v>
+      </c>
+    </row>
+    <row r="189" spans="7:13">
+      <c r="G189">
+        <v>568613</v>
+      </c>
+      <c r="H189">
+        <v>370554.7</v>
+      </c>
+    </row>
+    <row r="190" spans="7:13">
+      <c r="G190">
+        <v>568613</v>
+      </c>
+      <c r="H190">
+        <v>370554.7</v>
+      </c>
+    </row>
+    <row r="191" spans="7:13">
+      <c r="G191">
+        <v>573903.4</v>
+      </c>
+      <c r="H191">
+        <v>371498</v>
+      </c>
+    </row>
+    <row r="192" spans="7:13">
+      <c r="G192">
+        <v>629369.80000000005</v>
+      </c>
+      <c r="H192">
+        <v>371498</v>
+      </c>
+    </row>
+    <row r="193" spans="7:8">
+      <c r="G193">
+        <v>641602.9</v>
+      </c>
+      <c r="H193">
+        <v>374171.6</v>
+      </c>
+    </row>
+    <row r="194" spans="7:8">
+      <c r="G194">
+        <v>673916.1</v>
+      </c>
+      <c r="H194">
+        <v>377974.6</v>
+      </c>
+    </row>
+    <row r="195" spans="7:8">
+      <c r="G195">
+        <v>743764.1</v>
+      </c>
+      <c r="H195">
+        <v>377974.6</v>
+      </c>
+    </row>
+    <row r="196" spans="7:8">
+      <c r="G196">
+        <v>897597.6</v>
+      </c>
+      <c r="H196">
+        <v>468621</v>
+      </c>
+    </row>
+    <row r="197" spans="7:8">
+      <c r="G197">
+        <v>941611.3</v>
+      </c>
+      <c r="H197">
+        <v>477352.4</v>
+      </c>
+    </row>
+    <row r="198" spans="7:8">
+      <c r="H198">
+        <v>498522.8</v>
+      </c>
+    </row>
+    <row r="199" spans="7:8">
+      <c r="H199">
+        <v>498522.8</v>
+      </c>
+    </row>
+    <row r="200" spans="7:8">
+      <c r="H200">
+        <v>498522.8</v>
+      </c>
+    </row>
+    <row r="201" spans="7:8">
+      <c r="H201">
+        <v>498522.8</v>
+      </c>
+    </row>
+    <row r="202" spans="7:8">
+      <c r="H202">
+        <v>555018.19999999995</v>
+      </c>
+    </row>
+    <row r="203" spans="7:8">
+      <c r="H203">
+        <v>568613</v>
+      </c>
+    </row>
+    <row r="204" spans="7:8">
+      <c r="H204">
+        <v>573903.4</v>
+      </c>
+    </row>
+    <row r="205" spans="7:8">
+      <c r="H205">
+        <v>641602.9</v>
+      </c>
+    </row>
+    <row r="206" spans="7:8">
+      <c r="H206">
+        <v>659543.69999999995</v>
+      </c>
+    </row>
+    <row r="207" spans="7:8">
+      <c r="H207">
+        <v>659543.69999999995</v>
+      </c>
+    </row>
+    <row r="208" spans="7:8">
+      <c r="H208">
+        <v>673916.1</v>
+      </c>
+    </row>
+    <row r="209" spans="8:8">
+      <c r="H209">
+        <v>717700</v>
+      </c>
+    </row>
+    <row r="210" spans="8:8">
+      <c r="H210">
+        <v>717700</v>
+      </c>
+    </row>
+    <row r="211" spans="8:8">
+      <c r="H211">
+        <v>717700</v>
+      </c>
+    </row>
+    <row r="212" spans="8:8">
+      <c r="H212">
+        <v>743764.1</v>
+      </c>
+    </row>
+    <row r="213" spans="8:8">
+      <c r="H213">
+        <v>743764.1</v>
+      </c>
+    </row>
+    <row r="214" spans="8:8">
+      <c r="H214">
+        <v>743764.1</v>
+      </c>
+    </row>
+    <row r="215" spans="8:8">
+      <c r="H215">
+        <v>840280.5</v>
+      </c>
+    </row>
+    <row r="216" spans="8:8">
+      <c r="H216">
+        <v>843339.4</v>
+      </c>
+    </row>
+    <row r="217" spans="8:8">
+      <c r="H217">
+        <v>897597.6</v>
+      </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="H158:H217">
+    <sortCondition ref="H158"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+  <tableParts count="4">
+    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
+    <tablePart r:id="rId4"/>
+    <tablePart r:id="rId5"/>
+  </tableParts>
 </worksheet>
 </file>
 
